--- a/baidubaike/data/baike_analyzed.xlsx
+++ b/baidubaike/data/baike_analyzed.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -31,6 +31,36 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>中华人民共和国税收征收管理法</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1，中华人民共和国税收征收管理法（2001修正案）
+2，全国人民代表大会常务委员会关于修改《中华人民共和国税收征收管理法》的决定
+3，中华人民共和国税收征收管理法实施细则（2012年修订）
+4，国家税务总局关于贯彻《中华人民共和国税收征收管理法》及其实施细则若干具体问题的通知
+5，国家税务总局关于宣传贯彻《中华人民共和国税收征收管理法实施细则》的通知
+6，国家税务局关于贯彻执行《中华人民共和国税收征收管理法》和《全国人民代表大会常务委员会关于惩治偷税、抗税犯罪的补充规定》的通知（内容省略）
+7，国家税务总局关于农业税、牧业税、耕地占用税、契税征收管理暂参照《中华人民共和国税收征收管理法》执行的通知
+8，国家税务总局关于印发《中华人民共和国税收征收管理法》宣传提纲的通知
+9，国家税务总局关于贯彻实施《中华人民共和国税收征收管理法》有关问题的通知
+10，最高人民检察院关于严格执行《中华人民共和国税收征收管理法》和《关于惩治偷税、抗税犯罪的补充规定》的通知</t>
+  </si>
+  <si>
+    <t>1，22071
+2，274456
+3，1589635
+4，44384
+5，37818
+6，31731
+7，26770
+8，24233
+9，22778
+10，16640</t>
   </si>
   <si>
     <t>营业税</t>
@@ -62,189 +92,12 @@
 9，1324202
 10，524338</t>
   </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>财政部 国家税务总局关于个人金融商品买卖等营业税若干免税政策的通知</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>营业税税目税率表</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>中华人民共和国税收征收管理法</t>
-  </si>
-  <si>
-    <t>1，中华人民共和国税收征收管理法（2001修正案）
-2，中华人民共和国税收征收管理法（1995年修订）
-3，全国人民代表大会常务委员会关于修改《中华人民共和国税收征收管理法》的决定
-4，中华人民共和国税收征收管理法（1992年版）
-5，中华人民共和国税收征收管理法实施细则（2012年修订）
-6，中华人民共和国税收征收管理法实施细则
-7，中华人民共和国税收征收管理法实施细则
-8，国家税务总局关于贯彻《中华人民共和国税收征收管理法》及其实施细则若干具体问题的通知
-9，国家税务总局关于宣传贯彻《中华人民共和国税收征收管理法实施细则》的通知
-10，国家税务局关于贯彻执行《中华人民共和国税收征收管理法》和《全国人民代表大会常务委员会关于惩治偷税、抗税犯罪的补充规定》的通知（内容省略）</t>
-  </si>
-  <si>
-    <t>1，22071
-2，490024
-3，274456
-4，1704
-5，1589635
-6，36572
-7，1697
-8，44384
-9，37818
-10，31731</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>中华人民共和国营业税条例实施细则</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>关于修改〈中华人民共和国增值税暂行条例实施细则〉和〈中华人民共和国营业税暂行条例实施细则〉的决定</t>
-  </si>
-  <si>
-    <t>1，关于修改《中华人民共和国增值税暂行条例实施细则》和《中华人民共和国营业税暂行条例实施细则》的决定</t>
-  </si>
-  <si>
-    <t>1，1385495</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>中华人民共和国增值税暂行条例实施细则</t>
-  </si>
-  <si>
-    <t>1，中华人民共和国增值税暂行条例实施细则（2011年修订）
-2，关于修改《中华人民共和国增值税暂行条例实施细则》和《中华人民共和国营业税暂行条例实施细则》的决定
-3，中华人民共和国增值税暂行条例实施细则（2008）
-4，财政部关于印发《中华人民共和国增值税暂行条例实施细则》的通知
-5，北京市国家税务局转发财政部、国家税务总局《中华人民共和国增值税暂行条例实施细则》的通知
-6，北京市税务局转发财政部《关于印发〈中华人民共和国增值税暂行条例实施细则〉的通知》的通知转发财政部《关于印发〈中华人民共和国增值税暂行条例实施细则〉的通知》的通知
-7，湖南省税务局关于执行《中华人民共和国增值税暂行条例实施细则》有关问题的通知</t>
-  </si>
-  <si>
-    <t>1，1385540
-2，1385495
-3，479452
-4，45
-5，524220
-6，1032504
-7，302403</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>中华人民共和国营业税暂行条例实施细则</t>
-  </si>
-  <si>
-    <t>1，中华人民共和国营业税暂行条例实施细则（2011年修订）
-2，关于修改《中华人民共和国增值税暂行条例实施细则》和《中华人民共和国营业税暂行条例实施细则》的决定
-3，中华人民共和国营业税暂行条例实施细则（2008）
-4，财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知
-5，财政部关于印发《中华人民共和国营业税暂行条例实施细则》的通知
-6，北京市国家税务局转发财政部、国家税务总局令关于《中华人民共和国营业税暂行条例实施细则》的通知
-7，太原市财政局、太原市地方税务局关于转发《财政部、国家税务总局关于明确〈中华人民共和国营业税暂行条例实施细则〉第十一条有关问题的通知》的通知
-8，河北省财政厅、河北省地方税务局转发财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题通知的通知
-9，沈阳市国家税务局转发辽宁省国家税务局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知
-10，天津市国家税务局转发《财政部、国家税务总局关于明确〈中华人民共和国营业税暂行条例实施细则〉第十一条有关问题的通知》的通知</t>
-  </si>
-  <si>
-    <t>1，1385541
-2，1385495
-3，479451
-4，26237
-5，47
-6，524256
-7，1050380
-8，35949
-9，49737
-10，34822</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>中华人民共和国营业税暂行条例</t>
-  </si>
-  <si>
-    <t>1，中华人民共和国营业税暂行条例（2008年修订）
-2，中华人民共和国营业税暂行条例
-3，北京市国家税务局转发财政部、国家税务总局令关于《中华人民共和国营业税暂行条例实施细则》的通知
-4，扬州市地方税务局转发江苏省地方税务局关于贯彻新《中华人民共和国营业税暂行条例》的通知
-5，太原市财政局、太原市地方税务局关于转发《财政部、国家税务总局关于明确〈中华人民共和国营业税暂行条例实施细则〉第十一条有关问题的通知》的通知
-6，新疆维吾尔自治区国家税务局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知
-7，东莞市地方税务局转发省财政厅、省地方税务局转发财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知
-8，湖南省财政厅、湖南省国家税务局转发财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知
-9，宁夏回族自治区财政厅、宁夏回族自治区地方税务局转发财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第11条有关问题的通知
-10，甘肃省税务局转发财政部关于印发《中华人民共和国营业税暂行条例实施细则》的通知</t>
-  </si>
-  <si>
-    <t>1，470381
-2，1256
-3，524256
-4，1622154
-5，1050380
-6，1043752
-7，69928
-8，1027397
-9，1046749
-10，1058717</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>营业税暂行条例实施细则</t>
-  </si>
-  <si>
-    <t>1，中华人民共和国营业税暂行条例实施细则（2011年修订）
-2，关于修改《中华人民共和国增值税暂行条例实施细则》和《中华人民共和国营业税暂行条例实施细则》的决定
-3，中华人民共和国营业税暂行条例实施细则（2008）
-4，财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知
-5，财政部关于执行营业税暂行条例实施细则中确定旅行社应纳税营业额的通知
-6，财政部关于印发《中华人民共和国营业税暂行条例实施细则》的通知
-7，北京市国家税务局转发财政部、国家税务总局令关于《中华人民共和国营业税暂行条例实施细则》的通知
-8，太原市财政局、太原市地方税务局关于转发《财政部、国家税务总局关于明确〈中华人民共和国营业税暂行条例实施细则〉第十一条有关问题的通知》的通知
-9，河北省财政厅、河北省地方税务局转发财政部、国家税务总局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题通知的通知
-10，沈阳市国家税务局转发辽宁省国家税务局关于明确《中华人民共和国营业税暂行条例实施细则》第十一条有关问题的通知</t>
-  </si>
-  <si>
-    <t>1，1385541
-2，1385495
-3，479451
-4，26237
-5，50
-6，47
-7，524256
-8，1050380
-9，35949
-10，49737</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -256,6 +109,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="1">
@@ -274,19 +134,25 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="1" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="1" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment horizontal="" indent="0" shrinkToFit="0" textRotation="0" vertical="" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -618,7 +484,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -626,8 +492,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="4" width="60"/>
-    <col collapsed="false" hidden="false" max="5" min="5" width="15"/>
+    <col collapsed="false" hidden="false" max="5" min="5" width="60"/>
+    <col collapsed="false" hidden="false" max="6" min="6" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,167 +517,57 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
